--- a/sim1/sim1.xlsx
+++ b/sim1/sim1.xlsx
@@ -465,19 +465,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D2" t="n">
-        <v>23.1</v>
+        <v>13.2</v>
       </c>
       <c r="E2" t="n">
-        <v>-46.2</v>
+        <v>-26.4</v>
       </c>
       <c r="F2" t="n">
-        <v>-23.1</v>
+        <v>-13.2</v>
       </c>
     </row>
     <row r="3">
@@ -488,16 +488,16 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D3" t="n">
-        <v>42.39232835439427</v>
+        <v>25.00990191679672</v>
       </c>
       <c r="E3" t="n">
-        <v>-82.82042270846074</v>
+        <v>-48.89738440483471</v>
       </c>
       <c r="F3" t="n">
-        <v>-40.42809435406647</v>
+        <v>-23.88748248803799</v>
       </c>
     </row>
     <row r="4">
@@ -505,19 +505,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D4" t="n">
-        <v>59.61066674847506</v>
+        <v>44.26025611322365</v>
       </c>
       <c r="E4" t="n">
-        <v>-113.7790839470362</v>
+        <v>-85.34384466049897</v>
       </c>
       <c r="F4" t="n">
-        <v>-54.16841719856118</v>
+        <v>-41.08358854727533</v>
       </c>
     </row>
     <row r="5">
@@ -525,19 +525,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D5" t="n">
-        <v>88.00059552406584</v>
+        <v>56.48754282075909</v>
       </c>
       <c r="E5" t="n">
-        <v>-165.8411277829512</v>
+        <v>-106.2397628093501</v>
       </c>
       <c r="F5" t="n">
-        <v>-77.84053225888537</v>
+        <v>-49.75221998859102</v>
       </c>
     </row>
     <row r="6">
@@ -545,19 +545,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="C6" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D6" t="n">
-        <v>95.96659521480237</v>
+        <v>83.29610888915568</v>
       </c>
       <c r="E6" t="n">
-        <v>-174.945533446472</v>
+        <v>-155.4880401962493</v>
       </c>
       <c r="F6" t="n">
-        <v>-78.97893823166959</v>
+        <v>-72.19193130709365</v>
       </c>
     </row>
     <row r="7">
@@ -568,16 +568,16 @@
         <v>1.5</v>
       </c>
       <c r="C7" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D7" t="n">
-        <v>115.3075251145479</v>
+        <v>106.2154996825621</v>
       </c>
       <c r="E7" t="n">
-        <v>-206.562768539257</v>
+        <v>-194.9601476924682</v>
       </c>
       <c r="F7" t="n">
-        <v>-91.25524342470911</v>
+        <v>-88.74464800990611</v>
       </c>
     </row>
     <row r="8">
@@ -585,19 +585,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D8" t="n">
-        <v>125.9733969316204</v>
+        <v>111.5811881019266</v>
       </c>
       <c r="E8" t="n">
-        <v>-219.6409128159443</v>
+        <v>-197.7865799690998</v>
       </c>
       <c r="F8" t="n">
-        <v>-93.66751588432388</v>
+        <v>-86.20539186717329</v>
       </c>
     </row>
     <row r="9">
@@ -608,16 +608,16 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D9" t="n">
-        <v>141.9048635237061</v>
+        <v>130.0289541026907</v>
       </c>
       <c r="E9" t="n">
-        <v>-242.8756081380364</v>
+        <v>-226.8307271066076</v>
       </c>
       <c r="F9" t="n">
-        <v>-100.9707446143303</v>
+        <v>-96.80177300391685</v>
       </c>
     </row>
     <row r="10">
@@ -625,19 +625,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="C10" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D10" t="n">
-        <v>157.4862022429903</v>
+        <v>153.5712911976819</v>
       </c>
       <c r="E10" t="n">
-        <v>-264.6118279069351</v>
+        <v>-265.0017296280321</v>
       </c>
       <c r="F10" t="n">
-        <v>-107.1256256639448</v>
+        <v>-111.4304384303503</v>
       </c>
     </row>
     <row r="11">
@@ -645,19 +645,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="C11" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D11" t="n">
-        <v>161.72510789438</v>
+        <v>169.9962353483259</v>
       </c>
       <c r="E11" t="n">
-        <v>-262.9462133289222</v>
+        <v>-287.5109691124843</v>
       </c>
       <c r="F11" t="n">
-        <v>-101.2211054345421</v>
+        <v>-117.5147337641584</v>
       </c>
     </row>
     <row r="12">
@@ -668,16 +668,16 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="D12" t="n">
-        <v>165.8708545757435</v>
+        <v>187.1602064069379</v>
       </c>
       <c r="E12" t="n">
-        <v>-261.3880192568205</v>
+        <v>-310.7685198779388</v>
       </c>
       <c r="F12" t="n">
-        <v>-95.51716468107705</v>
+        <v>-123.6083134710009</v>
       </c>
     </row>
     <row r="13">
@@ -685,19 +685,19 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D13" t="n">
-        <v>193.5754896536441</v>
+        <v>190.7469626849241</v>
       </c>
       <c r="E13" t="n">
-        <v>-307.2303178183346</v>
+        <v>-306.1261210737489</v>
       </c>
       <c r="F13" t="n">
-        <v>-113.6548281646905</v>
+        <v>-115.3791583888248</v>
       </c>
     </row>
     <row r="14">
@@ -708,16 +708,16 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D14" t="n">
-        <v>209.1212564336701</v>
+        <v>203.0548923628224</v>
       </c>
       <c r="E14" t="n">
-        <v>-327.016108332536</v>
+        <v>-319.3831245651268</v>
       </c>
       <c r="F14" t="n">
-        <v>-117.8948518988659</v>
+        <v>-116.3282322023044</v>
       </c>
     </row>
     <row r="15">
@@ -725,19 +725,19 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="C15" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D15" t="n">
-        <v>225.4253719148468</v>
+        <v>226.6423291007389</v>
       </c>
       <c r="E15" t="n">
-        <v>-347.7258535629437</v>
+        <v>-354.8851439318994</v>
       </c>
       <c r="F15" t="n">
-        <v>-122.3004816480969</v>
+        <v>-128.2428148311605</v>
       </c>
     </row>
     <row r="16">
@@ -745,19 +745,19 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D16" t="n">
-        <v>230.3711697710679</v>
+        <v>235.9613817337049</v>
       </c>
       <c r="E16" t="n">
-        <v>-345.0999648842152</v>
+        <v>-360.597531032243</v>
       </c>
       <c r="F16" t="n">
-        <v>-114.7287951131474</v>
+        <v>-124.6361492985382</v>
       </c>
     </row>
     <row r="17">
@@ -765,19 +765,19 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D17" t="n">
-        <v>255.0082731971373</v>
+        <v>251.6756283586334</v>
       </c>
       <c r="E17" t="n">
-        <v>-382.2434276833494</v>
+        <v>-379.1415090658189</v>
       </c>
       <c r="F17" t="n">
-        <v>-127.235154486212</v>
+        <v>-127.4658807071856</v>
       </c>
     </row>
     <row r="18">
@@ -785,19 +785,19 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="C18" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D18" t="n">
-        <v>258.203923859602</v>
+        <v>256.0445209816774</v>
       </c>
       <c r="E18" t="n">
-        <v>-375.1913965802014</v>
+        <v>-374.4895300465021</v>
       </c>
       <c r="F18" t="n">
-        <v>-116.9874727205994</v>
+        <v>-118.4450090648247</v>
       </c>
     </row>
     <row r="19">
@@ -808,16 +808,16 @@
         <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D19" t="n">
-        <v>260.229343299963</v>
+        <v>260.3173978944436</v>
       </c>
       <c r="E19" t="n">
-        <v>-366.3941722245462</v>
+        <v>-370.1375711797106</v>
       </c>
       <c r="F19" t="n">
-        <v>-106.1648289245832</v>
+        <v>-109.820173285267</v>
       </c>
     </row>
     <row r="20">
@@ -825,19 +825,19 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D20" t="n">
-        <v>267.7102498390111</v>
+        <v>271.0963692464404</v>
       </c>
       <c r="E20" t="n">
-        <v>-369.1643073909405</v>
+        <v>-379.2662832612569</v>
       </c>
       <c r="F20" t="n">
-        <v>-101.4540575519295</v>
+        <v>-108.1699140148165</v>
       </c>
     </row>
     <row r="21">
@@ -845,19 +845,19 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D21" t="n">
-        <v>286.5767475411196</v>
+        <v>278.3384497705496</v>
       </c>
       <c r="E21" t="n">
-        <v>-394.8557881885841</v>
+        <v>-381.206257177886</v>
       </c>
       <c r="F21" t="n">
-        <v>-108.2790406474645</v>
+        <v>-102.8678074073364</v>
       </c>
     </row>
     <row r="22">
@@ -865,19 +865,19 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D22" t="n">
-        <v>296.77861381746</v>
+        <v>284.3213701675036</v>
       </c>
       <c r="E22" t="n">
-        <v>-402.3903479305854</v>
+        <v>-380.8211163276716</v>
       </c>
       <c r="F22" t="n">
-        <v>-105.6117341131255</v>
+        <v>-96.49974616016794</v>
       </c>
     </row>
     <row r="23">
@@ -885,19 +885,19 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="C23" t="n">
         <v>18</v>
       </c>
       <c r="D23" t="n">
-        <v>310.0562723777502</v>
+        <v>307.7728031599793</v>
       </c>
       <c r="E23" t="n">
-        <v>-416.0389811983657</v>
+        <v>-415.660814372075</v>
       </c>
       <c r="F23" t="n">
-        <v>-105.9827088206155</v>
+        <v>-107.8880112120957</v>
       </c>
     </row>
     <row r="24">
@@ -905,19 +905,19 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="C24" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D24" t="n">
-        <v>318.6421261427549</v>
+        <v>327.4088410191604</v>
       </c>
       <c r="E24" t="n">
-        <v>-420.007372956509</v>
+        <v>-441.6535952490068</v>
       </c>
       <c r="F24" t="n">
-        <v>-101.3652468137541</v>
+        <v>-114.2447542298464</v>
       </c>
     </row>
     <row r="25">
@@ -925,19 +925,19 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="C25" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D25" t="n">
-        <v>323.7392875047376</v>
+        <v>333.4133351704132</v>
       </c>
       <c r="E25" t="n">
-        <v>-417.119831165594</v>
+        <v>-439.5700233197728</v>
       </c>
       <c r="F25" t="n">
-        <v>-93.38054366085635</v>
+        <v>-106.1566881493596</v>
       </c>
     </row>
     <row r="26">
@@ -945,19 +945,19 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="C26" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D26" t="n">
-        <v>333.1244279015014</v>
+        <v>342.5858677880384</v>
       </c>
       <c r="E26" t="n">
-        <v>-423.2185156506222</v>
+        <v>-444.2208272261585</v>
       </c>
       <c r="F26" t="n">
-        <v>-90.09408774912083</v>
+        <v>-101.6349594381201</v>
       </c>
     </row>
     <row r="27">
@@ -965,19 +965,19 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="C27" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D27" t="n">
-        <v>337.9033098710156</v>
+        <v>366.4068144866869</v>
       </c>
       <c r="E27" t="n">
-        <v>-420.1238775858702</v>
+        <v>-478.2716867665947</v>
       </c>
       <c r="F27" t="n">
-        <v>-82.22056771485455</v>
+        <v>-111.8648722799078</v>
       </c>
     </row>
     <row r="28">
@@ -988,16 +988,16 @@
         <v>1.5</v>
       </c>
       <c r="C28" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D28" t="n">
-        <v>346.9771657421048</v>
+        <v>368.2542452022017</v>
       </c>
       <c r="E28" t="n">
-        <v>-426.0288220601499</v>
+        <v>-467.2265037130033</v>
       </c>
       <c r="F28" t="n">
-        <v>-79.0516563180451</v>
+        <v>-98.97225851080162</v>
       </c>
     </row>
     <row r="29">
@@ -1005,19 +1005,19 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="C29" t="n">
         <v>15</v>
       </c>
       <c r="D29" t="n">
-        <v>364.1016043256586</v>
+        <v>376.6610746973057</v>
       </c>
       <c r="E29" t="n">
-        <v>-448.0529388620624</v>
+        <v>-470.0936578154157</v>
       </c>
       <c r="F29" t="n">
-        <v>-83.95133453640375</v>
+        <v>-93.43258311810996</v>
       </c>
     </row>
     <row r="30">
@@ -1028,16 +1028,16 @@
         <v>1.5</v>
       </c>
       <c r="C30" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D30" t="n">
-        <v>384.1496969388321</v>
+        <v>379.9331462285956</v>
       </c>
       <c r="E30" t="n">
-        <v>-475.2566539694038</v>
+        <v>-462.8759005053845</v>
       </c>
       <c r="F30" t="n">
-        <v>-91.10695703057166</v>
+        <v>-82.94275427678895</v>
       </c>
     </row>
     <row r="31">
@@ -1048,16 +1048,16 @@
         <v>1</v>
       </c>
       <c r="C31" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D31" t="n">
-        <v>388.9071900642053</v>
+        <v>389.1833070266028</v>
       </c>
       <c r="E31" t="n">
-        <v>-471.0059194711317</v>
+        <v>-468.2236381255874</v>
       </c>
       <c r="F31" t="n">
-        <v>-82.0987294069264</v>
+        <v>-79.04033109898455</v>
       </c>
     </row>
     <row r="32">
@@ -1068,16 +1068,16 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D32" t="n">
-        <v>386.9601271565086</v>
+        <v>391.6301758612144</v>
       </c>
       <c r="E32" t="n">
-        <v>-453.8293276564834</v>
+        <v>-460.0264840234035</v>
       </c>
       <c r="F32" t="n">
-        <v>-66.86920049997474</v>
+        <v>-68.39630816218914</v>
       </c>
     </row>
   </sheetData>
